--- a/SCE_Rate_Matrix.xlsx
+++ b/SCE_Rate_Matrix.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19440" windowHeight="10545" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="17550" windowHeight="8010" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="GS2" sheetId="1" r:id="rId1"/>
     <sheet name="GS3" sheetId="2" r:id="rId2"/>
     <sheet name="GS8" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Worksheet" sheetId="7" r:id="rId4"/>
     <sheet name="GS8 Historical" sheetId="5" r:id="rId5"/>
     <sheet name="GS8 Current" sheetId="6" r:id="rId6"/>
   </sheets>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="24">
-  <si>
-    <t>non TOU</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="51">
   <si>
     <t>TOU A</t>
   </si>
@@ -78,26 +75,113 @@
     <t>Backup Time Rel Demand Summer mid</t>
   </si>
   <si>
-    <t>GS2</t>
-  </si>
-  <si>
-    <t>GS3</t>
-  </si>
-  <si>
-    <t>GS8</t>
-  </si>
-  <si>
     <t>TOU B - 2kV  to 50 kW</t>
   </si>
   <si>
     <t>TOU B - greater than 50 kW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWREC Summer on </t>
+  </si>
+  <si>
+    <t>DWREC winter mid</t>
+  </si>
+  <si>
+    <t>DWRBC</t>
+  </si>
+  <si>
+    <t>TRBAA</t>
+  </si>
+  <si>
+    <t>RSBAA</t>
+  </si>
+  <si>
+    <t>TACBAA</t>
+  </si>
+  <si>
+    <t>Distrib</t>
+  </si>
+  <si>
+    <t>NSGC</t>
+  </si>
+  <si>
+    <t>NDC</t>
+  </si>
+  <si>
+    <t>PPPC</t>
+  </si>
+  <si>
+    <t>PUCRF</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>UG</t>
+  </si>
+  <si>
+    <t>Summer On-Peak</t>
+  </si>
+  <si>
+    <t>Summer Mid-Peak</t>
+  </si>
+  <si>
+    <t>Summer Off-Peak</t>
+  </si>
+  <si>
+    <t>Winter On-Peak</t>
+  </si>
+  <si>
+    <t>Winter Mid-Peak</t>
+  </si>
+  <si>
+    <t>Winter Off-Peak</t>
+  </si>
+  <si>
+    <t>DWREC</t>
+  </si>
+  <si>
+    <t>Demand Charge</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Time-Related</t>
+  </si>
+  <si>
+    <t>Generation</t>
+  </si>
+  <si>
+    <t>Trans (TOTCA)</t>
+  </si>
+  <si>
+    <t>T&amp;D (Delivery)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UG Winter mid </t>
+  </si>
+  <si>
+    <t>UG Summer on</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>Source: https://www.sce.com/NR/sc3/tm2/pdf/ce54-12.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,16 +189,72 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -122,62 +262,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -190,6 +296,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>293632</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>27710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="152400"/>
+          <a:ext cx="13152382" cy="6923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -493,15 +642,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f>0.02204-0.00513</f>
@@ -514,7 +663,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5.13E-3</v>
@@ -525,7 +674,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.36198000000000002</v>
@@ -536,7 +685,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.127</v>
@@ -547,7 +696,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3.9E-2</v>
@@ -558,7 +707,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6.4549999999999996E-2</v>
@@ -569,7 +718,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3.5720000000000002E-2</v>
@@ -580,7 +729,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-5.9300000000000004E-3</v>
@@ -591,7 +740,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:C13" si="0">B9</f>
@@ -604,7 +753,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -617,7 +766,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -630,7 +779,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -643,7 +792,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>12.18</v>
@@ -654,7 +803,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -665,7 +814,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -676,7 +825,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -687,7 +836,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>5.12</v>
@@ -698,7 +847,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>14.94</v>
@@ -709,7 +858,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>4.57</v>
@@ -738,15 +887,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.5290000000000002E-2</v>
@@ -757,7 +906,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5.13E-3</v>
@@ -768,7 +917,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.26713999999999999</v>
@@ -779,7 +928,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.11371000000000001</v>
@@ -790,7 +939,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>5.058E-2</v>
@@ -801,7 +950,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>5.543E-2</v>
@@ -812,7 +961,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3.8240000000000003E-2</v>
@@ -823,7 +972,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-5.9300000000000004E-3</v>
@@ -834,7 +983,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-5.9300000000000004E-3</v>
@@ -845,7 +994,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>-5.9300000000000004E-3</v>
@@ -856,7 +1005,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-5.9300000000000004E-3</v>
@@ -867,7 +1016,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>-5.9300000000000004E-3</v>
@@ -878,7 +1027,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>13.3</v>
@@ -889,7 +1038,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -900,7 +1049,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -911,7 +1060,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.32</v>
@@ -922,7 +1071,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>5.12</v>
@@ -933,7 +1082,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>12.96</v>
@@ -944,7 +1093,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>3.08</v>
@@ -963,7 +1112,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,70 +1123,75 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="B2">
         <v>1.3760000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>1.3820000000000002E-2</v>
+        <f>Worksheet!I9-Worksheet!G9</f>
+        <v>1.3499999999999996E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B3">
         <v>5.13E-3</v>
       </c>
       <c r="C3">
-        <v>5.13E-3</v>
+        <f>Worksheet!G9</f>
+        <v>5.4900000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B4">
         <v>0.34992000000000001</v>
       </c>
       <c r="C4">
-        <v>9.9830000000000002E-2</v>
+        <f>Worksheet!J9</f>
+        <v>8.1229999999999997E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
+      <c r="A5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.12232</v>
       </c>
       <c r="C5">
-        <v>5.5989999999999998E-2</v>
+        <f>Worksheet!J10</f>
+        <v>5.4330000000000003E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
+      <c r="A6" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4.1110000000000001E-2</v>
       </c>
       <c r="C6">
-        <v>3.4770000000000002E-2</v>
+        <f>Worksheet!J11</f>
+        <v>3.635E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
+      <c r="A7" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B7">
         <v>6.2089999999999999E-2</v>
@@ -1047,8 +1201,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3.6839999999999998E-2</v>
@@ -1058,107 +1212,116 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="B9">
         <v>-5.9300000000000004E-3</v>
       </c>
       <c r="C9">
-        <v>-3.6999999999999999E-4</v>
+        <f>Worksheet!K9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="B10">
         <v>-5.9300000000000004E-3</v>
       </c>
       <c r="C10">
-        <v>-3.6999999999999999E-4</v>
+        <f>Worksheet!K10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
+      <c r="A11" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="B11">
         <v>-5.9300000000000004E-3</v>
       </c>
       <c r="C11">
-        <v>-3.6999999999999999E-4</v>
+        <f>Worksheet!K11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12">
+        <v>-5.9300000000000004E-3</v>
+      </c>
+      <c r="C12">
+        <f>Worksheet!K12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>-5.9300000000000004E-3</v>
+      </c>
+      <c r="C13">
+        <f>Worksheet!K13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>11</v>
-      </c>
-      <c r="B12">
-        <v>-5.9300000000000004E-3</v>
-      </c>
-      <c r="C12">
-        <v>-3.6999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>-5.9300000000000004E-3</v>
-      </c>
-      <c r="C13">
-        <v>-3.6999999999999999E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
       </c>
       <c r="B14">
         <v>11.88</v>
       </c>
       <c r="C14">
-        <v>6.27</v>
+        <f>Worksheet!I17</f>
+        <v>18.79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>Worksheet!J19</f>
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>20.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>Worksheet!J20</f>
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>5.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
       </c>
       <c r="B17">
         <v>0.27</v>
       </c>
       <c r="C17">
-        <v>2.7E-2</v>
+        <f>Worksheet!I24</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>16</v>
+      <c r="A18" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B18">
         <v>5.12</v>
@@ -1168,8 +1331,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>17</v>
+      <c r="A19" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B19">
         <v>10.99</v>
@@ -1179,8 +1342,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
+      <c r="A20" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2.78</v>
@@ -1196,198 +1359,396 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <f>0.02204-0.00513</f>
-        <v>1.6910000000000001E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>5.13E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>6.6960000000000006E-2</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f>A4</f>
-        <v>6.6960000000000006E-2</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.13667000000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.11854999999999999</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0.10323</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f>A5</f>
-        <v>6.6960000000000006E-2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8.3979999999999985E-2</v>
-      </c>
-      <c r="H6" s="3">
-        <v>8.4929999999999992E-2</v>
-      </c>
-      <c r="I6" s="3">
-        <v>8.0780000000000005E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5.0549999999999998E-2</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.5110000000000006E-2</v>
-      </c>
-      <c r="H7" s="2">
-        <v>5.9500000000000004E-2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>5.4070000000000007E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>5.0549999999999998E-2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
-        <v>8.0659999999999996E-2</v>
-      </c>
-      <c r="H8" s="2">
-        <v>6.3939999999999997E-2</v>
-      </c>
-      <c r="I8" s="2">
-        <v>7.5049999999999992E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-5.9300000000000004E-3</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="4">
-        <v>5.1830000000000008E-2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4.8190000000000004E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4.9800000000000004E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f>A9</f>
-        <v>-5.9300000000000004E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f>A10</f>
-        <v>-5.9300000000000004E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f>A11</f>
-        <v>-5.9300000000000004E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f>A12</f>
-        <v>-5.9300000000000004E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12.18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>17.05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>-1.4400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <v>2.0000000000000002E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>-1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <f>SUM(B4:B6)</f>
+        <v>-2.4200000000000003E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <f>$B$7</f>
+        <v>-2.4200000000000003E-3</v>
+      </c>
+      <c r="C9">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="D9">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F9">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="G9">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="H9">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="I9" s="1">
+        <f>SUM(B9:H9)</f>
+        <v>1.8989999999999996E-2</v>
+      </c>
+      <c r="J9">
+        <v>8.1229999999999997E-2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ref="B10:B14" si="0">$B$7</f>
+        <v>-2.4200000000000003E-3</v>
+      </c>
+      <c r="C10">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="D10">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F10">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="G10">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="H10">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" ref="I10:I14" si="1">SUM(B10:H10)</f>
+        <v>1.8989999999999996E-2</v>
+      </c>
+      <c r="J10">
+        <v>5.4330000000000003E-2</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>-2.4200000000000003E-3</v>
+      </c>
+      <c r="C11">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="D11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E11">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F11">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="G11">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="H11">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8989999999999996E-2</v>
+      </c>
+      <c r="J11">
+        <v>3.635E-2</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>-2.4200000000000003E-3</v>
+      </c>
+      <c r="C13">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="D13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F13">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="G13">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="H13">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8989999999999996E-2</v>
+      </c>
+      <c r="J13">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>-2.4200000000000003E-3</v>
+      </c>
+      <c r="C14">
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="D14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="E14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="F14">
+        <v>9.3399999999999993E-3</v>
+      </c>
+      <c r="G14">
+        <v>5.4900000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>4.6000000000000001E-4</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8989999999999996E-2</v>
+      </c>
+      <c r="J14">
+        <v>4.1869999999999997E-2</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>4.76</v>
+      </c>
+      <c r="C17">
+        <v>14.03</v>
+      </c>
+      <c r="I17">
+        <v>18.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J20">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I24">
+        <f>SUM(B24:H24)</f>
+        <v>0.55000000000000004</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1407,15 +1768,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1.3760000000000001E-2</v>
@@ -1426,7 +1787,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5.13E-3</v>
@@ -1437,7 +1798,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>0.34992000000000001</v>
@@ -1448,7 +1809,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>0.12232</v>
@@ -1459,7 +1820,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>4.1110000000000001E-2</v>
@@ -1470,7 +1831,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6.2089999999999999E-2</v>
@@ -1481,7 +1842,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>3.6839999999999998E-2</v>
@@ -1492,7 +1853,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-5.9300000000000004E-3</v>
@@ -1503,7 +1864,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-5.9300000000000004E-3</v>
@@ -1514,7 +1875,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>-5.9300000000000004E-3</v>
@@ -1525,7 +1886,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-5.9300000000000004E-3</v>
@@ -1536,7 +1897,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>-5.9300000000000004E-3</v>
@@ -1547,7 +1908,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>11.88</v>
@@ -1558,7 +1919,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1569,7 +1930,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1580,7 +1941,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>0.27</v>
@@ -1591,7 +1952,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>5.12</v>
@@ -1602,7 +1963,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>10.99</v>
@@ -1613,7 +1974,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2.78</v>
@@ -1643,15 +2004,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <f>0.02162-0.00513</f>
@@ -1664,7 +2025,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>5.13E-3</v>
@@ -1676,7 +2037,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <f>0.11565</f>
@@ -1688,7 +2049,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>6.028E-2</v>
@@ -1699,7 +2060,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3.5999999999999997E-2</v>
@@ -1710,7 +2071,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>6.2120000000000002E-2</v>
@@ -1721,7 +2082,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>4.147E-2</v>
@@ -1732,7 +2093,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>-3.6999999999999999E-4</v>
@@ -1744,7 +2105,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-3.6999999999999999E-4</v>
@@ -1756,7 +2117,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>-3.6999999999999999E-4</v>
@@ -1768,7 +2129,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>-3.6999999999999999E-4</v>
@@ -1780,7 +2141,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
         <v>-3.6999999999999999E-4</v>
@@ -1792,7 +2153,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>14.64</v>
@@ -1803,7 +2164,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>24.33</v>
@@ -1814,7 +2175,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>6.71</v>
@@ -1825,7 +2186,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>2.7E-2</v>
@@ -1837,7 +2198,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>5.12</v>
@@ -1849,7 +2210,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>10.99</v>
@@ -1861,7 +2222,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>2.78</v>
